--- a/docs/ipfjes-slog.xlsx
+++ b/docs/ipfjes-slog.xlsx
@@ -5,33 +5,71 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ipfjes-slog" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sept2017" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="oct2017" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">date blood sample taken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date safebox containing blood samples and crf posted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">study id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">person completing log</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">Monthly recruitment activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPF Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDT(if used, cases only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of potential participants that could be assessed for eligibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of potential participants assessed for eligibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluded (not approached because criteria not met):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagnosis before feb 2017 (cases only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluded (approached):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unable to give informed consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work abroad for year or more (not including armed services or merchant navy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">declined to particpate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other reason (specify on line below)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB month tab is opening tab and have retopective tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work abroad (not including armed services or merchant navy)</t>
   </si>
 </sst>
 </file>
@@ -43,9 +81,11 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,8 +145,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -127,42 +171,213 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.5051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.82142857142857"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.82142857142857"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.95408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.82142857142857"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/docs/ipfjes-slog.xlsx
+++ b/docs/ipfjes-slog.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="sept2017" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="oct2017" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="pre-sept2017" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="sept2017" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="oct2017" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="nov2017" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
   <si>
     <t xml:space="preserve">Monthly recruitment activity</t>
   </si>
@@ -173,8 +174,110 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -269,7 +372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -277,7 +380,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -356,22 +459,98 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.82142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.64795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.82142857142857"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/docs/ipfjes-slog.xlsx
+++ b/docs/ipfjes-slog.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="pre-sept2017" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="sept2017" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="oct2017" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="nov2017" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="pre-october" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="october" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="november" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t xml:space="preserve">Monthly recruitment activity</t>
   </si>
@@ -37,40 +37,40 @@
     <t xml:space="preserve">Control Clinic</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of potential participants that could be assessed for eligibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of potential participants assessed for eligibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluded (not approached because criteria not met):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diagnosis before feb 2017 (cases only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excluded (approached):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unable to give informed consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work abroad for year or more (not including armed services or merchant navy)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">declined to particpate</t>
+    <t xml:space="preserve">Number of patients screened </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of patients excluded without being approached because criteria not met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of patients excluded because female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of patients exlcuded because wrong age (controls only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of patients excluded because diagnosis before feb 2017 (cases only)</t>
   </si>
   <si>
     <t xml:space="preserve">other reason (specify on line below)</t>
   </si>
   <si>
-    <t xml:space="preserve">NB month tab is opening tab and have retopective tab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">work abroad (not including armed services or merchant navy)</t>
+    <t xml:space="preserve">Number of patients excluded after being approached </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of patients excluded because unable to give informed consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of patients excluded because worked abroad for year or more (not including armed services or merchant navy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of patients excluded because declined to particpate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of patients recrutied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.b number of patients screened minus patients excluded should equal number of patients recruited</t>
   </si>
 </sst>
 </file>
@@ -80,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -102,6 +102,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,13 +154,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -172,122 +184,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="A1:D16"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.5051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.82142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.423469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,58 +216,74 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -372,80 +297,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A1:D16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.82142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.64795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -459,24 +415,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.0765306122449"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.64795918367347"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.82142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,58 +452,74 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -559,4 +531,30 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/docs/ipfjes-slog.xlsx
+++ b/docs/ipfjes-slog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="pre-october" sheetId="1" state="visible" r:id="rId2"/>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">number of patients excluded because declined to particpate</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of patients recrutied</t>
+    <t xml:space="preserve">Number of patients recruited</t>
   </si>
   <si>
     <t xml:space="preserve">n.b number of patients screened minus patients excluded should equal number of patients recruited</t>
@@ -186,17 +186,16 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.423469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="116.540816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -304,17 +303,15 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.64795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,16 +420,14 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.64795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,7 +541,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
